--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ccl12-Ccr3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ccl12-Ccr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,13 +525,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -537,46 +540,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.6436919999999999</v>
+        <v>0.2401406666666667</v>
       </c>
       <c r="H2">
-        <v>1.931076</v>
+        <v>0.720422</v>
       </c>
       <c r="I2">
-        <v>0.01042849608821769</v>
+        <v>0.002192729333974893</v>
       </c>
       <c r="J2">
-        <v>0.01043598962356505</v>
+        <v>0.002203844280310985</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.1323866666666667</v>
+        <v>0.1375686666666667</v>
       </c>
       <c r="N2">
-        <v>0.39716</v>
+        <v>0.412706</v>
       </c>
       <c r="O2">
-        <v>0.2977240407890032</v>
+        <v>0.2896572731203081</v>
       </c>
       <c r="P2">
-        <v>0.2977240407890032</v>
+        <v>0.2896572731203081</v>
       </c>
       <c r="Q2">
-        <v>0.08521623823999998</v>
+        <v>0.03303583132577778</v>
       </c>
       <c r="R2">
-        <v>0.7669461441599998</v>
+        <v>0.297322481932</v>
       </c>
       <c r="S2">
-        <v>0.003104813994736484</v>
+        <v>0.0006351399995700769</v>
       </c>
       <c r="T2">
-        <v>0.003107045000359895</v>
+        <v>0.0006383595246166681</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,13 +587,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -599,46 +602,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.6436919999999999</v>
+        <v>0.2401406666666667</v>
       </c>
       <c r="H3">
-        <v>1.931076</v>
+        <v>0.720422</v>
       </c>
       <c r="I3">
-        <v>0.01042849608821769</v>
+        <v>0.002192729333974893</v>
       </c>
       <c r="J3">
-        <v>0.01043598962356505</v>
+        <v>0.002203844280310985</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.3122756666666667</v>
+        <v>0.3373673333333334</v>
       </c>
       <c r="N3">
-        <v>0.936827</v>
+        <v>1.012102</v>
       </c>
       <c r="O3">
-        <v>0.7022759592109968</v>
+        <v>0.7103427268796919</v>
       </c>
       <c r="P3">
-        <v>0.7022759592109967</v>
+        <v>0.7103427268796919</v>
       </c>
       <c r="Q3">
-        <v>0.201009348428</v>
+        <v>0.08101561633822223</v>
       </c>
       <c r="R3">
-        <v>1.809084135852</v>
+        <v>0.729140547044</v>
       </c>
       <c r="S3">
-        <v>0.007323682093481209</v>
+        <v>0.001557589334404816</v>
       </c>
       <c r="T3">
-        <v>0.007328944623205154</v>
+        <v>0.001565484755694317</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +649,61 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>26.62426633333333</v>
+        <v>0.643692</v>
       </c>
       <c r="H4">
-        <v>79.872799</v>
+        <v>1.931076</v>
       </c>
       <c r="I4">
-        <v>0.4313414759059189</v>
+        <v>0.005877564804149375</v>
       </c>
       <c r="J4">
-        <v>0.4316514220927074</v>
+        <v>0.005907358183739276</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.1323866666666667</v>
+        <v>0.1375686666666667</v>
       </c>
       <c r="N4">
-        <v>0.39716</v>
+        <v>0.412706</v>
       </c>
       <c r="O4">
-        <v>0.2977240407890032</v>
+        <v>0.2896572731203081</v>
       </c>
       <c r="P4">
-        <v>0.2977240407890032</v>
+        <v>0.2896572731203081</v>
       </c>
       <c r="Q4">
-        <v>3.524697872315556</v>
+        <v>0.08855185018400001</v>
       </c>
       <c r="R4">
-        <v>31.72228085084</v>
+        <v>0.796966651656</v>
       </c>
       <c r="S4">
-        <v>0.1284207271666026</v>
+        <v>0.001702479393757806</v>
       </c>
       <c r="T4">
-        <v>0.1285130055977604</v>
+        <v>0.001711109262846855</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +711,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>26.62426633333333</v>
+        <v>0.643692</v>
       </c>
       <c r="H5">
-        <v>79.872799</v>
+        <v>1.931076</v>
       </c>
       <c r="I5">
-        <v>0.4313414759059189</v>
+        <v>0.005877564804149375</v>
       </c>
       <c r="J5">
-        <v>0.4316514220927074</v>
+        <v>0.005907358183739276</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.3122756666666667</v>
+        <v>0.3373673333333334</v>
       </c>
       <c r="N5">
-        <v>0.936827</v>
+        <v>1.012102</v>
       </c>
       <c r="O5">
-        <v>0.7022759592109968</v>
+        <v>0.7103427268796919</v>
       </c>
       <c r="P5">
-        <v>0.7022759592109967</v>
+        <v>0.7103427268796919</v>
       </c>
       <c r="Q5">
-        <v>8.314110518752557</v>
+        <v>0.217160653528</v>
       </c>
       <c r="R5">
-        <v>74.826994668773</v>
+        <v>1.954445881752</v>
       </c>
       <c r="S5">
-        <v>0.3029207487393162</v>
+        <v>0.004175085410391569</v>
       </c>
       <c r="T5">
-        <v>0.3031384164949469</v>
+        <v>0.004196248920892422</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +773,61 @@
         <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.132963</v>
+        <v>60.66100033333333</v>
       </c>
       <c r="H6">
-        <v>0.265926</v>
+        <v>181.983001</v>
       </c>
       <c r="I6">
-        <v>0.002154142237867939</v>
+        <v>0.553896833491318</v>
       </c>
       <c r="J6">
-        <v>0.001437126750390021</v>
+        <v>0.5567045368793268</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.1323866666666667</v>
+        <v>0.1375686666666667</v>
       </c>
       <c r="N6">
-        <v>0.39716</v>
+        <v>0.412706</v>
       </c>
       <c r="O6">
-        <v>0.2977240407890032</v>
+        <v>0.2896572731203081</v>
       </c>
       <c r="P6">
-        <v>0.2977240407890032</v>
+        <v>0.2896572731203081</v>
       </c>
       <c r="Q6">
-        <v>0.01760252836</v>
+        <v>8.34505293452289</v>
       </c>
       <c r="R6">
-        <v>0.10561517016</v>
+        <v>75.105476410706</v>
       </c>
       <c r="S6">
-        <v>0.0006413399314923087</v>
+        <v>0.1604402463790685</v>
       </c>
       <c r="T6">
-        <v>0.0004278671832520862</v>
+        <v>0.1612535180861698</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +835,61 @@
         <v>22</v>
       </c>
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.132963</v>
+        <v>60.66100033333333</v>
       </c>
       <c r="H7">
-        <v>0.265926</v>
+        <v>181.983001</v>
       </c>
       <c r="I7">
-        <v>0.002154142237867939</v>
+        <v>0.553896833491318</v>
       </c>
       <c r="J7">
-        <v>0.001437126750390021</v>
+        <v>0.5567045368793268</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.3122756666666667</v>
+        <v>0.3373673333333334</v>
       </c>
       <c r="N7">
-        <v>0.936827</v>
+        <v>1.012102</v>
       </c>
       <c r="O7">
-        <v>0.7022759592109968</v>
+        <v>0.7103427268796919</v>
       </c>
       <c r="P7">
-        <v>0.7022759592109967</v>
+        <v>0.7103427268796919</v>
       </c>
       <c r="Q7">
-        <v>0.041521109467</v>
+        <v>20.46503991978911</v>
       </c>
       <c r="R7">
-        <v>0.249126656802</v>
+        <v>184.185359278102</v>
       </c>
       <c r="S7">
-        <v>0.00151280230637563</v>
+        <v>0.3934565871122495</v>
       </c>
       <c r="T7">
-        <v>0.001009259567137935</v>
+        <v>0.395451018793157</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +897,61 @@
         <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G8">
-        <v>34.323415</v>
+        <v>1.6570225</v>
       </c>
       <c r="H8">
-        <v>102.970245</v>
+        <v>3.314045</v>
       </c>
       <c r="I8">
-        <v>0.5560758857679955</v>
+        <v>0.0151303063043872</v>
       </c>
       <c r="J8">
-        <v>0.5564754615333375</v>
+        <v>0.01013800122420362</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.1323866666666667</v>
+        <v>0.1375686666666667</v>
       </c>
       <c r="N8">
-        <v>0.39716</v>
+        <v>0.412706</v>
       </c>
       <c r="O8">
-        <v>0.2977240407890032</v>
+        <v>0.2896572731203081</v>
       </c>
       <c r="P8">
-        <v>0.2977240407890032</v>
+        <v>0.2896572731203081</v>
       </c>
       <c r="Q8">
-        <v>4.543962500466667</v>
+        <v>0.2279543759616667</v>
       </c>
       <c r="R8">
-        <v>40.8956625042</v>
+        <v>1.36772625577</v>
       </c>
       <c r="S8">
-        <v>0.1655571596961717</v>
+        <v>0.004382603265603804</v>
       </c>
       <c r="T8">
-        <v>0.1656761230076307</v>
+        <v>0.002936545789493166</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +959,185 @@
         <v>23</v>
       </c>
       <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.5</v>
+      </c>
+      <c r="G9">
+        <v>1.6570225</v>
+      </c>
+      <c r="H9">
+        <v>3.314045</v>
+      </c>
+      <c r="I9">
+        <v>0.0151303063043872</v>
+      </c>
+      <c r="J9">
+        <v>0.01013800122420362</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.3373673333333334</v>
+      </c>
+      <c r="N9">
+        <v>1.012102</v>
+      </c>
+      <c r="O9">
+        <v>0.7103427268796919</v>
+      </c>
+      <c r="P9">
+        <v>0.7103427268796919</v>
+      </c>
+      <c r="Q9">
+        <v>0.5590252620983334</v>
+      </c>
+      <c r="R9">
+        <v>3.35415157259</v>
+      </c>
+      <c r="S9">
+        <v>0.0107477030387834</v>
+      </c>
+      <c r="T9">
+        <v>0.007201455434710454</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
         <v>25</v>
       </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9">
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
         <v>3</v>
       </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>34.323415</v>
-      </c>
-      <c r="H9">
-        <v>102.970245</v>
-      </c>
-      <c r="I9">
-        <v>0.5560758857679955</v>
-      </c>
-      <c r="J9">
-        <v>0.5564754615333375</v>
-      </c>
-      <c r="K9">
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>46.31492933333334</v>
+      </c>
+      <c r="H10">
+        <v>138.944788</v>
+      </c>
+      <c r="I10">
+        <v>0.4229025660661706</v>
+      </c>
+      <c r="J10">
+        <v>0.4250462594324195</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.1375686666666667</v>
+      </c>
+      <c r="N10">
+        <v>0.412706</v>
+      </c>
+      <c r="O10">
+        <v>0.2896572731203081</v>
+      </c>
+      <c r="P10">
+        <v>0.2896572731203081</v>
+      </c>
+      <c r="Q10">
+        <v>6.371483075147556</v>
+      </c>
+      <c r="R10">
+        <v>57.34334767632801</v>
+      </c>
+      <c r="S10">
+        <v>0.1224968040823079</v>
+      </c>
+      <c r="T10">
+        <v>0.1231177404571817</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11">
         <v>3</v>
       </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>0.3122756666666667</v>
-      </c>
-      <c r="N9">
-        <v>0.936827</v>
-      </c>
-      <c r="O9">
-        <v>0.7022759592109968</v>
-      </c>
-      <c r="P9">
-        <v>0.7022759592109967</v>
-      </c>
-      <c r="Q9">
-        <v>10.71836730140167</v>
-      </c>
-      <c r="R9">
-        <v>96.46530571261501</v>
-      </c>
-      <c r="S9">
-        <v>0.3905187260718238</v>
-      </c>
-      <c r="T9">
-        <v>0.3907993385257067</v>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>46.31492933333334</v>
+      </c>
+      <c r="H11">
+        <v>138.944788</v>
+      </c>
+      <c r="I11">
+        <v>0.4229025660661706</v>
+      </c>
+      <c r="J11">
+        <v>0.4250462594324195</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.3373673333333334</v>
+      </c>
+      <c r="N11">
+        <v>1.012102</v>
+      </c>
+      <c r="O11">
+        <v>0.7103427268796919</v>
+      </c>
+      <c r="P11">
+        <v>0.7103427268796919</v>
+      </c>
+      <c r="Q11">
+        <v>15.62514420270845</v>
+      </c>
+      <c r="R11">
+        <v>140.626297824376</v>
+      </c>
+      <c r="S11">
+        <v>0.3004057619838627</v>
+      </c>
+      <c r="T11">
+        <v>0.3019285189752378</v>
       </c>
     </row>
   </sheetData>
